--- a/MonitorizacionCPU.xlsx
+++ b/MonitorizacionCPU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignasi\Downloads\DocumentosUIB\2n - 2n - ACSI\Practica Tema 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCD27DE-2425-478B-A57E-539457B4B6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D6A7BC-15AA-40A2-81FC-148DE6A481F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23070,6 +23070,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" b="1"/>
+                  <a:t>Timestamp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -23135,6 +23190,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" b="1"/>
+                  <a:t>% CPU</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -24140,7 +24250,7 @@
   <dimension ref="A1:G1081"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MonitorizacionCPU.xlsx
+++ b/MonitorizacionCPU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignasi\Downloads\DocumentosUIB\2n - 2n - ACSI\Practica Tema 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D6A7BC-15AA-40A2-81FC-148DE6A481F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37D0BD6-5650-4BAD-BA11-B92CB914C354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="1089">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3338,9 +3338,6 @@
       </rPr>
       <t xml:space="preserve"> ,que quiere decir que nuestro sistema cuenta con 16 CPUs.</t>
     </r>
-  </si>
-  <si>
-    <t>Monitorizando el uso de CPU del monitor TOP hemos obtenido los mismos 3 valores, por tanto, hemos contabilizado la frecuencia de cada uno de ellos. Valor: 0.0 - Frecuencia: 410, Valor: 0.2 - Frecuencia: 612, Valor: 0.4 - Frecuencia: 58. Que hacen una media de porcentaje de uso de CPU de: 0.13481398</t>
   </si>
 </sst>
 </file>
@@ -24249,8 +24246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1081"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24353,8 +24350,9 @@
       <c r="F5" t="s">
         <v>1087</v>
       </c>
-      <c r="G5" t="s">
-        <v>1089</v>
+      <c r="G5" t="str">
+        <f xml:space="preserve"> "La sobrecarga equivale a tiempo de ejecución del monitor entre el intervalo de medida = "&amp;(0.175/5)*100&amp;"%"</f>
+        <v>La sobrecarga equivale a tiempo de ejecución del monitor entre el intervalo de medida = 3,5%</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/MonitorizacionCPU.xlsx
+++ b/MonitorizacionCPU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignasi\Downloads\DocumentosUIB\2n - 2n - ACSI\Practica Tema 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37D0BD6-5650-4BAD-BA11-B92CB914C354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0D7796-1685-499C-8524-B20D6ACEA82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23921,13 +23921,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>609598</xdr:colOff>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10048875</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
@@ -24246,8 +24246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1081"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39422,6 +39422,7 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MonitorizacionCPU.xlsx
+++ b/MonitorizacionCPU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignasi\Downloads\DocumentosUIB\2n - 2n - ACSI\Practica Tema 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0D7796-1685-499C-8524-B20D6ACEA82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFA4E7D-0EFB-4DDB-82BD-FBC42B4D13B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24246,8 +24246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1081"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MonitorizacionCPU.xlsx
+++ b/MonitorizacionCPU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JGalmés\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignasi\Downloads\DocumentosUIB\2n - 2n - ACSI\Practica Tema 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24346FB-E701-494F-8A12-681430A02930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FEA7D5-1A02-4F0F-822C-23AF67247522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11560" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="3975" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -44834,19 +44834,19 @@
       <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="116.54296875" customWidth="1"/>
-    <col min="7" max="7" width="255.7265625" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="116.5703125" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -44860,7 +44860,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -44880,7 +44880,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -44901,7 +44901,7 @@
         <v>Modo usuario = 0,0165740740740741 .Modo sistema = 0,0821296296296287 .Modo global = 0,149444444444441</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -44918,7 +44918,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -44939,7 +44939,7 @@
         <v>La sobrecarga equivale a tiempo de ejecución del monitor entre el intervalo de medida = 3,5%</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -44953,7 +44953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -44967,7 +44967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -44981,7 +44981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -44995,7 +44995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -45009,7 +45009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -45023,7 +45023,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -45037,7 +45037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -45051,7 +45051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -45065,7 +45065,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -45079,7 +45079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -45093,7 +45093,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -45107,7 +45107,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -45121,7 +45121,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -45135,7 +45135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -45149,7 +45149,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -45163,7 +45163,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -45177,7 +45177,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -45191,7 +45191,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -45205,7 +45205,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -45219,7 +45219,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -45233,7 +45233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -45247,7 +45247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -45261,7 +45261,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -45275,7 +45275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -45289,7 +45289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -45303,7 +45303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -45317,7 +45317,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -45331,7 +45331,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -45345,7 +45345,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -45359,7 +45359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -45373,7 +45373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -45387,7 +45387,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -45401,7 +45401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -45415,7 +45415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -45429,7 +45429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -45443,7 +45443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -45457,7 +45457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -45471,7 +45471,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -45485,7 +45485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -45499,7 +45499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -45513,7 +45513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -45527,7 +45527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -45541,7 +45541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -45555,7 +45555,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -45569,7 +45569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -45583,7 +45583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -45597,7 +45597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -45611,7 +45611,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -45625,7 +45625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -45639,7 +45639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -45653,7 +45653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -45667,7 +45667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -45681,7 +45681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -45695,7 +45695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -45709,7 +45709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -45723,7 +45723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -45737,7 +45737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -45751,7 +45751,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -45765,7 +45765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -45779,7 +45779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -45793,7 +45793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -45807,7 +45807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -45821,7 +45821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -45835,7 +45835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -45849,7 +45849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -45863,7 +45863,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -45877,7 +45877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -45891,7 +45891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -45905,7 +45905,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -45919,7 +45919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -45933,7 +45933,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -45947,7 +45947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -45961,7 +45961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -45975,7 +45975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -45989,7 +45989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -46003,7 +46003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -46017,7 +46017,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -46031,7 +46031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -46045,7 +46045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -46059,7 +46059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -46073,7 +46073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -46087,7 +46087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -46101,7 +46101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -46115,7 +46115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -46129,7 +46129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -46143,7 +46143,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -46157,7 +46157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -46171,7 +46171,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -46185,7 +46185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -46199,7 +46199,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -46213,7 +46213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -46227,7 +46227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -46241,7 +46241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -46255,7 +46255,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -46269,7 +46269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -46283,7 +46283,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -46297,7 +46297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -46311,7 +46311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -46325,7 +46325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -46339,7 +46339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -46353,7 +46353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -46367,7 +46367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -46381,7 +46381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -46395,7 +46395,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -46409,7 +46409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -46423,7 +46423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -46437,7 +46437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -46451,7 +46451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -46465,7 +46465,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -46479,7 +46479,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -46493,7 +46493,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -46507,7 +46507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -46521,7 +46521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -46535,7 +46535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -46549,7 +46549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -46563,7 +46563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -46577,7 +46577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -46591,7 +46591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -46605,7 +46605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -46619,7 +46619,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -46633,7 +46633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -46647,7 +46647,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -46661,7 +46661,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -46675,7 +46675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -46689,7 +46689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -46703,7 +46703,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -46717,7 +46717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -46731,7 +46731,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -46745,7 +46745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -46759,7 +46759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -46773,7 +46773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -46787,7 +46787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -46801,7 +46801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -46815,7 +46815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -46829,7 +46829,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -46843,7 +46843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -46857,7 +46857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -46871,7 +46871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -46885,7 +46885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -46899,7 +46899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -46913,7 +46913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -46927,7 +46927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -46941,7 +46941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -46955,7 +46955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -46969,7 +46969,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -46983,7 +46983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -46997,7 +46997,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -47011,7 +47011,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -47025,7 +47025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -47039,7 +47039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -47053,7 +47053,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -47067,7 +47067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -47081,7 +47081,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -47095,7 +47095,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -47109,7 +47109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -47123,7 +47123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -47137,7 +47137,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -47151,7 +47151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -47165,7 +47165,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -47179,7 +47179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -47193,7 +47193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -47207,7 +47207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -47221,7 +47221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -47235,7 +47235,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -47249,7 +47249,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -47263,7 +47263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -47277,7 +47277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -47291,7 +47291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -47305,7 +47305,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -47319,7 +47319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -47333,7 +47333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -47347,7 +47347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -47361,7 +47361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -47375,7 +47375,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -47389,7 +47389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -47403,7 +47403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -47417,7 +47417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -47431,7 +47431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -47445,7 +47445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -47459,7 +47459,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -47473,7 +47473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -47487,7 +47487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -47501,7 +47501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -47515,7 +47515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -47529,7 +47529,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -47543,7 +47543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -47557,7 +47557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -47571,7 +47571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -47585,7 +47585,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -47599,7 +47599,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -47613,7 +47613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -47627,7 +47627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -47641,7 +47641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -47655,7 +47655,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -47669,7 +47669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -47683,7 +47683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -47697,7 +47697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -47711,7 +47711,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -47725,7 +47725,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -47739,7 +47739,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -47753,7 +47753,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -47767,7 +47767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -47781,7 +47781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -47795,7 +47795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -47809,7 +47809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -47823,7 +47823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -47837,7 +47837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -47851,7 +47851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -47865,7 +47865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -47879,7 +47879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -47893,7 +47893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -47907,7 +47907,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -47921,7 +47921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -47935,7 +47935,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -47949,7 +47949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -47963,7 +47963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -47977,7 +47977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -47991,7 +47991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -48005,7 +48005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -48019,7 +48019,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -48033,7 +48033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -48047,7 +48047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -48061,7 +48061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -48075,7 +48075,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -48089,7 +48089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -48103,7 +48103,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -48117,7 +48117,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -48131,7 +48131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -48145,7 +48145,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -48159,7 +48159,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -48173,7 +48173,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -48187,7 +48187,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -48201,7 +48201,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -48215,7 +48215,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -48229,7 +48229,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -48243,7 +48243,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -48257,7 +48257,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -48271,7 +48271,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -48285,7 +48285,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -48299,7 +48299,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -48313,7 +48313,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -48327,7 +48327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -48341,7 +48341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -48355,7 +48355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -48369,7 +48369,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -48383,7 +48383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -48397,7 +48397,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -48411,7 +48411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -48425,7 +48425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -48439,7 +48439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -48453,7 +48453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -48467,7 +48467,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -48481,7 +48481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -48495,7 +48495,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -48509,7 +48509,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -48523,7 +48523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -48537,7 +48537,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -48551,7 +48551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -48565,7 +48565,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -48579,7 +48579,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -48593,7 +48593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -48607,7 +48607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -48621,7 +48621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -48635,7 +48635,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -48649,7 +48649,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -48663,7 +48663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -48677,7 +48677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -48691,7 +48691,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -48705,7 +48705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -48719,7 +48719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -48733,7 +48733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -48747,7 +48747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -48761,7 +48761,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -48775,7 +48775,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -48789,7 +48789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -48803,7 +48803,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -48817,7 +48817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -48831,7 +48831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -48845,7 +48845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -48859,7 +48859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -48873,7 +48873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -48887,7 +48887,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -48901,7 +48901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -48915,7 +48915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -48929,7 +48929,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -48943,7 +48943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -48957,7 +48957,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -48971,7 +48971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -48985,7 +48985,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -48999,7 +48999,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -49013,7 +49013,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -49027,7 +49027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -49041,7 +49041,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -49055,7 +49055,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -49069,7 +49069,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -49083,7 +49083,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -49097,7 +49097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -49111,7 +49111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -49125,7 +49125,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -49139,7 +49139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -49153,7 +49153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -49167,7 +49167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -49181,7 +49181,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -49195,7 +49195,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -49209,7 +49209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -49223,7 +49223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -49237,7 +49237,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -49251,7 +49251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -49265,7 +49265,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -49279,7 +49279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -49293,7 +49293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -49307,7 +49307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -49321,7 +49321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -49335,7 +49335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -49349,7 +49349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -49363,7 +49363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -49377,7 +49377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -49391,7 +49391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -49405,7 +49405,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -49419,7 +49419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -49433,7 +49433,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -49447,7 +49447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -49461,7 +49461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -49475,7 +49475,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -49489,7 +49489,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -49503,7 +49503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -49517,7 +49517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -49531,7 +49531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -49545,7 +49545,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -49559,7 +49559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -49573,7 +49573,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -49587,7 +49587,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -49601,7 +49601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -49615,7 +49615,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -49629,7 +49629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -49643,7 +49643,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -49657,7 +49657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -49671,7 +49671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -49685,7 +49685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -49699,7 +49699,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -49713,7 +49713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -49727,7 +49727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -49741,7 +49741,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -49755,7 +49755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -49769,7 +49769,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -49783,7 +49783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -49797,7 +49797,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -49811,7 +49811,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -49825,7 +49825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -49839,7 +49839,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -49853,7 +49853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>356</v>
       </c>
@@ -49867,7 +49867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -49881,7 +49881,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -49895,7 +49895,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -49909,7 +49909,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -49923,7 +49923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -49937,7 +49937,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -49951,7 +49951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -49965,7 +49965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -49979,7 +49979,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -49993,7 +49993,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -50007,7 +50007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -50021,7 +50021,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -50035,7 +50035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -50049,7 +50049,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -50063,7 +50063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -50077,7 +50077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -50091,7 +50091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -50105,7 +50105,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -50119,7 +50119,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -50133,7 +50133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -50147,7 +50147,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -50161,7 +50161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -50175,7 +50175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -50189,7 +50189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -50203,7 +50203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -50217,7 +50217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -50231,7 +50231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -50245,7 +50245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>384</v>
       </c>
@@ -50259,7 +50259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>385</v>
       </c>
@@ -50273,7 +50273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -50287,7 +50287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>387</v>
       </c>
@@ -50301,7 +50301,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -50315,7 +50315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>389</v>
       </c>
@@ -50329,7 +50329,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>390</v>
       </c>
@@ -50343,7 +50343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>391</v>
       </c>
@@ -50357,7 +50357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>392</v>
       </c>
@@ -50371,7 +50371,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>393</v>
       </c>
@@ -50385,7 +50385,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>394</v>
       </c>
@@ -50399,7 +50399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>395</v>
       </c>
@@ -50413,7 +50413,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>396</v>
       </c>
@@ -50427,7 +50427,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>397</v>
       </c>
@@ -50441,7 +50441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -50455,7 +50455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>399</v>
       </c>
@@ -50469,7 +50469,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>400</v>
       </c>
@@ -50483,7 +50483,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>401</v>
       </c>
@@ -50497,7 +50497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>402</v>
       </c>
@@ -50511,7 +50511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>403</v>
       </c>
@@ -50525,7 +50525,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>404</v>
       </c>
@@ -50539,7 +50539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -50553,7 +50553,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -50567,7 +50567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -50581,7 +50581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>408</v>
       </c>
@@ -50595,7 +50595,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>409</v>
       </c>
@@ -50609,7 +50609,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -50623,7 +50623,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -50637,7 +50637,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>412</v>
       </c>
@@ -50651,7 +50651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>413</v>
       </c>
@@ -50665,7 +50665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>414</v>
       </c>
@@ -50679,7 +50679,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -50693,7 +50693,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -50707,7 +50707,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -50721,7 +50721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -50735,7 +50735,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -50749,7 +50749,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>420</v>
       </c>
@@ -50763,7 +50763,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>421</v>
       </c>
@@ -50777,7 +50777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -50791,7 +50791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>423</v>
       </c>
@@ -50805,7 +50805,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>424</v>
       </c>
@@ -50819,7 +50819,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>425</v>
       </c>
@@ -50833,7 +50833,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>426</v>
       </c>
@@ -50847,7 +50847,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>427</v>
       </c>
@@ -50861,7 +50861,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>428</v>
       </c>
@@ -50875,7 +50875,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>429</v>
       </c>
@@ -50889,7 +50889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>430</v>
       </c>
@@ -50903,7 +50903,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>431</v>
       </c>
@@ -50917,7 +50917,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>432</v>
       </c>
@@ -50931,7 +50931,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>433</v>
       </c>
@@ -50945,7 +50945,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>434</v>
       </c>
@@ -50959,7 +50959,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>435</v>
       </c>
@@ -50973,7 +50973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -50987,7 +50987,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>437</v>
       </c>
@@ -51001,7 +51001,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>438</v>
       </c>
@@ -51015,7 +51015,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>439</v>
       </c>
@@ -51029,7 +51029,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>440</v>
       </c>
@@ -51043,7 +51043,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>441</v>
       </c>
@@ -51057,7 +51057,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>442</v>
       </c>
@@ -51071,7 +51071,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>443</v>
       </c>
@@ -51085,7 +51085,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>444</v>
       </c>
@@ -51099,7 +51099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -51113,7 +51113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>446</v>
       </c>
@@ -51127,7 +51127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>447</v>
       </c>
@@ -51141,7 +51141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>448</v>
       </c>
@@ -51155,7 +51155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>449</v>
       </c>
@@ -51169,7 +51169,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>450</v>
       </c>
@@ -51183,7 +51183,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>451</v>
       </c>
@@ -51197,7 +51197,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>452</v>
       </c>
@@ -51211,7 +51211,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>453</v>
       </c>
@@ -51225,7 +51225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>454</v>
       </c>
@@ -51239,7 +51239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>455</v>
       </c>
@@ -51253,7 +51253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>456</v>
       </c>
@@ -51267,7 +51267,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>457</v>
       </c>
@@ -51281,7 +51281,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>458</v>
       </c>
@@ -51295,7 +51295,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>459</v>
       </c>
@@ -51309,7 +51309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>460</v>
       </c>
@@ -51323,7 +51323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>461</v>
       </c>
@@ -51337,7 +51337,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>462</v>
       </c>
@@ -51351,7 +51351,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>463</v>
       </c>
@@ -51365,7 +51365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>464</v>
       </c>
@@ -51379,7 +51379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>465</v>
       </c>
@@ -51393,7 +51393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>466</v>
       </c>
@@ -51407,7 +51407,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>467</v>
       </c>
@@ -51421,7 +51421,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>468</v>
       </c>
@@ -51435,7 +51435,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>469</v>
       </c>
@@ -51449,7 +51449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>470</v>
       </c>
@@ -51463,7 +51463,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>471</v>
       </c>
@@ -51477,7 +51477,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>472</v>
       </c>
@@ -51491,7 +51491,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>473</v>
       </c>
@@ -51505,7 +51505,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>474</v>
       </c>
@@ -51519,7 +51519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>475</v>
       </c>
@@ -51533,7 +51533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>476</v>
       </c>
@@ -51547,7 +51547,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>477</v>
       </c>
@@ -51561,7 +51561,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>478</v>
       </c>
@@ -51575,7 +51575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>479</v>
       </c>
@@ -51589,7 +51589,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>480</v>
       </c>
@@ -51603,7 +51603,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>481</v>
       </c>
@@ -51617,7 +51617,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>482</v>
       </c>
@@ -51631,7 +51631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>483</v>
       </c>
@@ -51645,7 +51645,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>484</v>
       </c>
@@ -51659,7 +51659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>485</v>
       </c>
@@ -51673,7 +51673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>486</v>
       </c>
@@ -51687,7 +51687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>487</v>
       </c>
@@ -51701,7 +51701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>488</v>
       </c>
@@ -51715,7 +51715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>489</v>
       </c>
@@ -51729,7 +51729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>490</v>
       </c>
@@ -51743,7 +51743,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>491</v>
       </c>
@@ -51757,7 +51757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>492</v>
       </c>
@@ -51771,7 +51771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>493</v>
       </c>
@@ -51785,7 +51785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>494</v>
       </c>
@@ -51799,7 +51799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>495</v>
       </c>
@@ -51813,7 +51813,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>496</v>
       </c>
@@ -51827,7 +51827,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>497</v>
       </c>
@@ -51841,7 +51841,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>498</v>
       </c>
@@ -51855,7 +51855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>499</v>
       </c>
@@ -51869,7 +51869,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>500</v>
       </c>
@@ -51883,7 +51883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>501</v>
       </c>
@@ -51897,7 +51897,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>502</v>
       </c>
@@ -51911,7 +51911,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>503</v>
       </c>
@@ -51925,7 +51925,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>504</v>
       </c>
@@ -51939,7 +51939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>505</v>
       </c>
@@ -51953,7 +51953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>506</v>
       </c>
@@ -51967,7 +51967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>507</v>
       </c>
@@ -51981,7 +51981,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>508</v>
       </c>
@@ -51995,7 +51995,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>509</v>
       </c>
@@ -52009,7 +52009,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>510</v>
       </c>
@@ -52023,7 +52023,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>511</v>
       </c>
@@ -52037,7 +52037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>512</v>
       </c>
@@ -52051,7 +52051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>513</v>
       </c>
@@ -52065,7 +52065,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>514</v>
       </c>
@@ -52079,7 +52079,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>515</v>
       </c>
@@ -52093,7 +52093,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>516</v>
       </c>
@@ -52107,7 +52107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>517</v>
       </c>
@@ -52121,7 +52121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>518</v>
       </c>
@@ -52135,7 +52135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>519</v>
       </c>
@@ -52149,7 +52149,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>520</v>
       </c>
@@ -52163,7 +52163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>521</v>
       </c>
@@ -52177,7 +52177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>522</v>
       </c>
@@ -52191,7 +52191,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>523</v>
       </c>
@@ -52205,7 +52205,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>524</v>
       </c>
@@ -52219,7 +52219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>525</v>
       </c>
@@ -52233,7 +52233,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>526</v>
       </c>
@@ -52247,7 +52247,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>527</v>
       </c>
@@ -52261,7 +52261,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>528</v>
       </c>
@@ -52275,7 +52275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>529</v>
       </c>
@@ -52289,7 +52289,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>530</v>
       </c>
@@ -52303,7 +52303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>531</v>
       </c>
@@ -52317,7 +52317,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>532</v>
       </c>
@@ -52331,7 +52331,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>533</v>
       </c>
@@ -52345,7 +52345,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>534</v>
       </c>
@@ -52359,7 +52359,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>535</v>
       </c>
@@ -52373,7 +52373,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>536</v>
       </c>
@@ -52387,7 +52387,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>537</v>
       </c>
@@ -52401,7 +52401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>538</v>
       </c>
@@ -52415,7 +52415,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>539</v>
       </c>
@@ -52429,7 +52429,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>540</v>
       </c>
@@ -52443,7 +52443,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>541</v>
       </c>
@@ -52457,7 +52457,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>542</v>
       </c>
@@ -52471,7 +52471,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>543</v>
       </c>
@@ -52485,7 +52485,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>544</v>
       </c>
@@ -52499,7 +52499,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>545</v>
       </c>
@@ -52513,7 +52513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>546</v>
       </c>
@@ -52527,7 +52527,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>547</v>
       </c>
@@ -52541,7 +52541,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>548</v>
       </c>
@@ -52555,7 +52555,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>549</v>
       </c>
@@ -52569,7 +52569,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>550</v>
       </c>
@@ -52583,7 +52583,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>551</v>
       </c>
@@ -52597,7 +52597,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>552</v>
       </c>
@@ -52611,7 +52611,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>553</v>
       </c>
@@ -52625,7 +52625,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>554</v>
       </c>
@@ -52639,7 +52639,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>555</v>
       </c>
@@ -52653,7 +52653,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>556</v>
       </c>
@@ -52667,7 +52667,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>557</v>
       </c>
@@ -52681,7 +52681,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>558</v>
       </c>
@@ -52695,7 +52695,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>559</v>
       </c>
@@ -52709,7 +52709,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>560</v>
       </c>
@@ -52723,7 +52723,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>561</v>
       </c>
@@ -52737,7 +52737,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>562</v>
       </c>
@@ -52751,7 +52751,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>563</v>
       </c>
@@ -52765,7 +52765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>564</v>
       </c>
@@ -52779,7 +52779,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>565</v>
       </c>
@@ -52793,7 +52793,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>566</v>
       </c>
@@ -52807,7 +52807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>567</v>
       </c>
@@ -52821,7 +52821,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>568</v>
       </c>
@@ -52835,7 +52835,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>569</v>
       </c>
@@ -52849,7 +52849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>570</v>
       </c>
@@ -52863,7 +52863,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>571</v>
       </c>
@@ -52877,7 +52877,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>572</v>
       </c>
@@ -52891,7 +52891,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>573</v>
       </c>
@@ -52905,7 +52905,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>574</v>
       </c>
@@ -52919,7 +52919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>575</v>
       </c>
@@ -52933,7 +52933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>576</v>
       </c>
@@ -52947,7 +52947,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>577</v>
       </c>
@@ -52961,7 +52961,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>578</v>
       </c>
@@ -52975,7 +52975,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>579</v>
       </c>
@@ -52989,7 +52989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>580</v>
       </c>
@@ -53003,7 +53003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>581</v>
       </c>
@@ -53017,7 +53017,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>582</v>
       </c>
@@ -53031,7 +53031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>583</v>
       </c>
@@ -53045,7 +53045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>584</v>
       </c>
@@ -53059,7 +53059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>585</v>
       </c>
@@ -53073,7 +53073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>586</v>
       </c>
@@ -53087,7 +53087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>587</v>
       </c>
@@ -53101,7 +53101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>588</v>
       </c>
@@ -53115,7 +53115,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>589</v>
       </c>
@@ -53129,7 +53129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>590</v>
       </c>
@@ -53143,7 +53143,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>591</v>
       </c>
@@ -53157,7 +53157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>592</v>
       </c>
@@ -53171,7 +53171,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>593</v>
       </c>
@@ -53185,7 +53185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>594</v>
       </c>
@@ -53199,7 +53199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>595</v>
       </c>
@@ -53213,7 +53213,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>596</v>
       </c>
@@ -53227,7 +53227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>597</v>
       </c>
@@ -53241,7 +53241,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>598</v>
       </c>
@@ -53255,7 +53255,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>599</v>
       </c>
@@ -53269,7 +53269,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>600</v>
       </c>
@@ -53283,7 +53283,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>601</v>
       </c>
@@ -53297,7 +53297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>602</v>
       </c>
@@ -53311,7 +53311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>603</v>
       </c>
@@ -53325,7 +53325,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>604</v>
       </c>
@@ -53339,7 +53339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>605</v>
       </c>
@@ -53353,7 +53353,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>606</v>
       </c>
@@ -53367,7 +53367,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>607</v>
       </c>
@@ -53381,7 +53381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>608</v>
       </c>
@@ -53395,7 +53395,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>609</v>
       </c>
@@ -53409,7 +53409,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>610</v>
       </c>
@@ -53423,7 +53423,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>611</v>
       </c>
@@ -53437,7 +53437,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>612</v>
       </c>
@@ -53451,7 +53451,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>613</v>
       </c>
@@ -53465,7 +53465,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>614</v>
       </c>
@@ -53479,7 +53479,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>615</v>
       </c>
@@ -53493,7 +53493,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>616</v>
       </c>
@@ -53507,7 +53507,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>617</v>
       </c>
@@ -53521,7 +53521,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>618</v>
       </c>
@@ -53535,7 +53535,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>619</v>
       </c>
@@ -53549,7 +53549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>620</v>
       </c>
@@ -53563,7 +53563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>621</v>
       </c>
@@ -53577,7 +53577,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>622</v>
       </c>
@@ -53591,7 +53591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>623</v>
       </c>
@@ -53605,7 +53605,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>624</v>
       </c>
@@ -53619,7 +53619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>625</v>
       </c>
@@ -53633,7 +53633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>626</v>
       </c>
@@ -53647,7 +53647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>627</v>
       </c>
@@ -53661,7 +53661,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>628</v>
       </c>
@@ -53675,7 +53675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>629</v>
       </c>
@@ -53689,7 +53689,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>630</v>
       </c>
@@ -53703,7 +53703,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>631</v>
       </c>
@@ -53717,7 +53717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>632</v>
       </c>
@@ -53731,7 +53731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>633</v>
       </c>
@@ -53745,7 +53745,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>634</v>
       </c>
@@ -53759,7 +53759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>635</v>
       </c>
@@ -53773,7 +53773,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>636</v>
       </c>
@@ -53787,7 +53787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>637</v>
       </c>
@@ -53801,7 +53801,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>638</v>
       </c>
@@ -53815,7 +53815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>639</v>
       </c>
@@ -53829,7 +53829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>640</v>
       </c>
@@ -53843,7 +53843,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>641</v>
       </c>
@@ -53857,7 +53857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>642</v>
       </c>
@@ -53871,7 +53871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>643</v>
       </c>
@@ -53885,7 +53885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>644</v>
       </c>
@@ -53899,7 +53899,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>645</v>
       </c>
@@ -53913,7 +53913,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>646</v>
       </c>
@@ -53927,7 +53927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>647</v>
       </c>
@@ -53941,7 +53941,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>648</v>
       </c>
@@ -53955,7 +53955,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>649</v>
       </c>
@@ -53969,7 +53969,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>650</v>
       </c>
@@ -53983,7 +53983,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>651</v>
       </c>
@@ -53997,7 +53997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>652</v>
       </c>
@@ -54011,7 +54011,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>653</v>
       </c>
@@ -54025,7 +54025,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>654</v>
       </c>
@@ -54039,7 +54039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>655</v>
       </c>
@@ -54053,7 +54053,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>656</v>
       </c>
@@ -54067,7 +54067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>657</v>
       </c>
@@ -54081,7 +54081,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>658</v>
       </c>
@@ -54095,7 +54095,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>659</v>
       </c>
@@ -54109,7 +54109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>660</v>
       </c>
@@ -54123,7 +54123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>661</v>
       </c>
@@ -54137,7 +54137,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>662</v>
       </c>
@@ -54151,7 +54151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>663</v>
       </c>
@@ -54165,7 +54165,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>664</v>
       </c>
@@ -54179,7 +54179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>665</v>
       </c>
@@ -54193,7 +54193,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>666</v>
       </c>
@@ -54207,7 +54207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>667</v>
       </c>
@@ -54221,7 +54221,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>668</v>
       </c>
@@ -54235,7 +54235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>669</v>
       </c>
@@ -54249,7 +54249,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>670</v>
       </c>
@@ -54263,7 +54263,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>671</v>
       </c>
@@ -54277,7 +54277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>672</v>
       </c>
@@ -54291,7 +54291,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>673</v>
       </c>
@@ -54305,7 +54305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>674</v>
       </c>
@@ -54319,7 +54319,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>675</v>
       </c>
@@ -54333,7 +54333,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>676</v>
       </c>
@@ -54347,7 +54347,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>677</v>
       </c>
@@ -54361,7 +54361,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>678</v>
       </c>
@@ -54375,7 +54375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>679</v>
       </c>
@@ -54389,7 +54389,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>680</v>
       </c>
@@ -54403,7 +54403,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>681</v>
       </c>
@@ -54417,7 +54417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>682</v>
       </c>
@@ -54431,7 +54431,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>683</v>
       </c>
@@ -54445,7 +54445,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>684</v>
       </c>
@@ -54459,7 +54459,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>685</v>
       </c>
@@ -54473,7 +54473,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>686</v>
       </c>
@@ -54487,7 +54487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>687</v>
       </c>
@@ -54501,7 +54501,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>688</v>
       </c>
@@ -54515,7 +54515,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>689</v>
       </c>
@@ -54529,7 +54529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>690</v>
       </c>
@@ -54543,7 +54543,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>691</v>
       </c>
@@ -54557,7 +54557,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>692</v>
       </c>
@@ -54571,7 +54571,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>693</v>
       </c>
@@ -54585,7 +54585,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>694</v>
       </c>
@@ -54599,7 +54599,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>695</v>
       </c>
@@ -54613,7 +54613,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>696</v>
       </c>
@@ -54627,7 +54627,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>697</v>
       </c>
@@ -54641,7 +54641,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>698</v>
       </c>
@@ -54655,7 +54655,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>699</v>
       </c>
@@ -54669,7 +54669,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>700</v>
       </c>
@@ -54683,7 +54683,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>701</v>
       </c>
@@ -54697,7 +54697,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>702</v>
       </c>
@@ -54711,7 +54711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>703</v>
       </c>
@@ -54725,7 +54725,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>704</v>
       </c>
@@ -54739,7 +54739,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>705</v>
       </c>
@@ -54753,7 +54753,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>706</v>
       </c>
@@ -54767,7 +54767,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>707</v>
       </c>
@@ -54781,7 +54781,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>708</v>
       </c>
@@ -54795,7 +54795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>709</v>
       </c>
@@ -54809,7 +54809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>710</v>
       </c>
@@ -54823,7 +54823,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>711</v>
       </c>
@@ -54837,7 +54837,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>712</v>
       </c>
@@ -54851,7 +54851,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>713</v>
       </c>
@@ -54865,7 +54865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>714</v>
       </c>
@@ -54879,7 +54879,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>715</v>
       </c>
@@ -54893,7 +54893,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>716</v>
       </c>
@@ -54907,7 +54907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>717</v>
       </c>
@@ -54921,7 +54921,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>718</v>
       </c>
@@ -54935,7 +54935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>719</v>
       </c>
@@ -54949,7 +54949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>720</v>
       </c>
@@ -54963,7 +54963,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>721</v>
       </c>
@@ -54977,7 +54977,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>722</v>
       </c>
@@ -54991,7 +54991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>723</v>
       </c>
@@ -55005,7 +55005,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>724</v>
       </c>
@@ -55019,7 +55019,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>725</v>
       </c>
@@ -55033,7 +55033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>726</v>
       </c>
@@ -55047,7 +55047,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>727</v>
       </c>
@@ -55061,7 +55061,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>728</v>
       </c>
@@ -55075,7 +55075,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>729</v>
       </c>
@@ -55089,7 +55089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>730</v>
       </c>
@@ -55103,7 +55103,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>731</v>
       </c>
@@ -55117,7 +55117,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>732</v>
       </c>
@@ -55131,7 +55131,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>733</v>
       </c>
@@ -55145,7 +55145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>734</v>
       </c>
@@ -55159,7 +55159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>735</v>
       </c>
@@ -55173,7 +55173,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>736</v>
       </c>
@@ -55187,7 +55187,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>737</v>
       </c>
@@ -55201,7 +55201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>738</v>
       </c>
@@ -55215,7 +55215,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>739</v>
       </c>
@@ -55229,7 +55229,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>740</v>
       </c>
@@ -55243,7 +55243,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>741</v>
       </c>
@@ -55257,7 +55257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>742</v>
       </c>
@@ -55271,7 +55271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>743</v>
       </c>
@@ -55285,7 +55285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>744</v>
       </c>
@@ -55299,7 +55299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>745</v>
       </c>
@@ -55313,7 +55313,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>746</v>
       </c>
@@ -55327,7 +55327,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>747</v>
       </c>
@@ -55341,7 +55341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>748</v>
       </c>
@@ -55355,7 +55355,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>749</v>
       </c>
@@ -55369,7 +55369,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>750</v>
       </c>
@@ -55383,7 +55383,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>751</v>
       </c>
@@ -55397,7 +55397,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>752</v>
       </c>
@@ -55411,7 +55411,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>753</v>
       </c>
@@ -55425,7 +55425,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>754</v>
       </c>
@@ -55439,7 +55439,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>755</v>
       </c>
@@ -55453,7 +55453,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>756</v>
       </c>
@@ -55467,7 +55467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>757</v>
       </c>
@@ -55481,7 +55481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>758</v>
       </c>
@@ -55495,7 +55495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>759</v>
       </c>
@@ -55509,7 +55509,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>760</v>
       </c>
@@ -55523,7 +55523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>761</v>
       </c>
@@ -55537,7 +55537,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>762</v>
       </c>
@@ -55551,7 +55551,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>763</v>
       </c>
@@ -55565,7 +55565,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>764</v>
       </c>
@@ -55579,7 +55579,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>765</v>
       </c>
@@ -55593,7 +55593,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>766</v>
       </c>
@@ -55607,7 +55607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>767</v>
       </c>
@@ -55621,7 +55621,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>768</v>
       </c>
@@ -55635,7 +55635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>769</v>
       </c>
@@ -55649,7 +55649,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>770</v>
       </c>
@@ -55663,7 +55663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>771</v>
       </c>
@@ -55677,7 +55677,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>772</v>
       </c>
@@ -55691,7 +55691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>773</v>
       </c>
@@ -55705,7 +55705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>774</v>
       </c>
@@ -55719,7 +55719,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>775</v>
       </c>
@@ -55733,7 +55733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>776</v>
       </c>
@@ -55747,7 +55747,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>777</v>
       </c>
@@ -55761,7 +55761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>778</v>
       </c>
@@ -55775,7 +55775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>779</v>
       </c>
@@ -55789,7 +55789,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>780</v>
       </c>
@@ -55803,7 +55803,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>781</v>
       </c>
@@ -55817,7 +55817,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>782</v>
       </c>
@@ -55831,7 +55831,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>783</v>
       </c>
@@ -55845,7 +55845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>784</v>
       </c>
@@ -55859,7 +55859,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>785</v>
       </c>
@@ -55873,7 +55873,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>786</v>
       </c>
@@ -55887,7 +55887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>787</v>
       </c>
@@ -55901,7 +55901,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>788</v>
       </c>
@@ -55915,7 +55915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>789</v>
       </c>
@@ -55929,7 +55929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>790</v>
       </c>
@@ -55943,7 +55943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>791</v>
       </c>
@@ -55957,7 +55957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>792</v>
       </c>
@@ -55971,7 +55971,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>793</v>
       </c>
@@ -55985,7 +55985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>794</v>
       </c>
@@ -55999,7 +55999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>795</v>
       </c>
@@ -56013,7 +56013,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>796</v>
       </c>
@@ -56027,7 +56027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>797</v>
       </c>
@@ -56041,7 +56041,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>798</v>
       </c>
@@ -56055,7 +56055,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>799</v>
       </c>
@@ -56069,7 +56069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>800</v>
       </c>
@@ -56083,7 +56083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>801</v>
       </c>
@@ -56097,7 +56097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>802</v>
       </c>
@@ -56111,7 +56111,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>803</v>
       </c>
@@ -56125,7 +56125,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>804</v>
       </c>
@@ -56139,7 +56139,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>805</v>
       </c>
@@ -56153,7 +56153,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>806</v>
       </c>
@@ -56167,7 +56167,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>807</v>
       </c>
@@ -56181,7 +56181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>808</v>
       </c>
@@ -56195,7 +56195,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>809</v>
       </c>
@@ -56209,7 +56209,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>810</v>
       </c>
@@ -56223,7 +56223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>811</v>
       </c>
@@ -56237,7 +56237,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>812</v>
       </c>
@@ -56251,7 +56251,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>813</v>
       </c>
@@ -56265,7 +56265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>814</v>
       </c>
@@ -56279,7 +56279,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>815</v>
       </c>
@@ -56293,7 +56293,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>816</v>
       </c>
@@ -56307,7 +56307,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>817</v>
       </c>
@@ -56321,7 +56321,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>818</v>
       </c>
@@ -56335,7 +56335,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>819</v>
       </c>
@@ -56349,7 +56349,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>820</v>
       </c>
@@ -56363,7 +56363,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>821</v>
       </c>
@@ -56377,7 +56377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>822</v>
       </c>
@@ -56391,7 +56391,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>823</v>
       </c>
@@ -56405,7 +56405,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>824</v>
       </c>
@@ -56419,7 +56419,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>825</v>
       </c>
@@ -56433,7 +56433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>826</v>
       </c>
@@ -56447,7 +56447,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>827</v>
       </c>
@@ -56461,7 +56461,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>828</v>
       </c>
@@ -56475,7 +56475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>829</v>
       </c>
@@ -56489,7 +56489,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>830</v>
       </c>
@@ -56503,7 +56503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>831</v>
       </c>
@@ -56517,7 +56517,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>832</v>
       </c>
@@ -56531,7 +56531,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>833</v>
       </c>
@@ -56545,7 +56545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>834</v>
       </c>
@@ -56559,7 +56559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>835</v>
       </c>
@@ -56573,7 +56573,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>836</v>
       </c>
@@ -56587,7 +56587,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>837</v>
       </c>
@@ -56601,7 +56601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>838</v>
       </c>
@@ -56615,7 +56615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>839</v>
       </c>
@@ -56629,7 +56629,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>840</v>
       </c>
@@ -56643,7 +56643,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>841</v>
       </c>
@@ -56657,7 +56657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>842</v>
       </c>
@@ -56671,7 +56671,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>843</v>
       </c>
@@ -56685,7 +56685,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>844</v>
       </c>
@@ -56699,7 +56699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>845</v>
       </c>
@@ -56713,7 +56713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>846</v>
       </c>
@@ -56727,7 +56727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>847</v>
       </c>
@@ -56741,7 +56741,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>848</v>
       </c>
@@ -56755,7 +56755,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>849</v>
       </c>
@@ -56769,7 +56769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>850</v>
       </c>
@@ -56783,7 +56783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>851</v>
       </c>
@@ -56797,7 +56797,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>852</v>
       </c>
@@ -56811,7 +56811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>853</v>
       </c>
@@ -56825,7 +56825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>854</v>
       </c>
@@ -56839,7 +56839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>855</v>
       </c>
@@ -56853,7 +56853,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>856</v>
       </c>
@@ -56867,7 +56867,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>857</v>
       </c>
@@ -56881,7 +56881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>858</v>
       </c>
@@ -56895,7 +56895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>859</v>
       </c>
@@ -56909,7 +56909,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>860</v>
       </c>
@@ -56923,7 +56923,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>861</v>
       </c>
@@ -56937,7 +56937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>862</v>
       </c>
@@ -56951,7 +56951,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>863</v>
       </c>
@@ -56965,7 +56965,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>864</v>
       </c>
@@ -56979,7 +56979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>865</v>
       </c>
@@ -56993,7 +56993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>866</v>
       </c>
@@ -57007,7 +57007,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>867</v>
       </c>
@@ -57021,7 +57021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>868</v>
       </c>
@@ -57035,7 +57035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>869</v>
       </c>
@@ -57049,7 +57049,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>870</v>
       </c>
@@ -57063,7 +57063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>871</v>
       </c>
@@ -57077,7 +57077,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>872</v>
       </c>
@@ -57091,7 +57091,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>873</v>
       </c>
@@ -57105,7 +57105,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>874</v>
       </c>
@@ -57119,7 +57119,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>875</v>
       </c>
@@ -57133,7 +57133,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>876</v>
       </c>
@@ -57147,7 +57147,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>877</v>
       </c>
@@ -57161,7 +57161,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>878</v>
       </c>
@@ -57175,7 +57175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>879</v>
       </c>
@@ -57189,7 +57189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>880</v>
       </c>
@@ -57203,7 +57203,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>881</v>
       </c>
@@ -57217,7 +57217,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>882</v>
       </c>
@@ -57231,7 +57231,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>883</v>
       </c>
@@ -57245,7 +57245,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>884</v>
       </c>
@@ -57259,7 +57259,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>885</v>
       </c>
@@ -57273,7 +57273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>886</v>
       </c>
@@ -57287,7 +57287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>887</v>
       </c>
@@ -57301,7 +57301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>888</v>
       </c>
@@ -57315,7 +57315,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>889</v>
       </c>
@@ -57329,7 +57329,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="891" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>890</v>
       </c>
@@ -57343,7 +57343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>891</v>
       </c>
@@ -57357,7 +57357,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="893" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>892</v>
       </c>
@@ -57371,7 +57371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>893</v>
       </c>
@@ -57385,7 +57385,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="895" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>894</v>
       </c>
@@ -57399,7 +57399,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="896" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>895</v>
       </c>
@@ -57413,7 +57413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>896</v>
       </c>
@@ -57427,7 +57427,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="898" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>897</v>
       </c>
@@ -57441,7 +57441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>898</v>
       </c>
@@ -57455,7 +57455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>899</v>
       </c>
@@ -57469,7 +57469,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="901" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>900</v>
       </c>
@@ -57483,7 +57483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>901</v>
       </c>
@@ -57497,7 +57497,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="903" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>902</v>
       </c>
@@ -57511,7 +57511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>903</v>
       </c>
@@ -57525,7 +57525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>904</v>
       </c>
@@ -57539,7 +57539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>905</v>
       </c>
@@ -57553,7 +57553,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="907" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>906</v>
       </c>
@@ -57567,7 +57567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>907</v>
       </c>
@@ -57581,7 +57581,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="909" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>908</v>
       </c>
@@ -57595,7 +57595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>909</v>
       </c>
@@ -57609,7 +57609,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="911" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>910</v>
       </c>
@@ -57623,7 +57623,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="912" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>911</v>
       </c>
@@ -57637,7 +57637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>912</v>
       </c>
@@ -57651,7 +57651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>913</v>
       </c>
@@ -57665,7 +57665,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="915" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>914</v>
       </c>
@@ -57679,7 +57679,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="916" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>915</v>
       </c>
@@ -57693,7 +57693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>916</v>
       </c>
@@ -57707,7 +57707,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="918" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>917</v>
       </c>
@@ -57721,7 +57721,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="919" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>918</v>
       </c>
@@ -57735,7 +57735,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="920" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>919</v>
       </c>
@@ -57749,7 +57749,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="921" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>920</v>
       </c>
@@ -57763,7 +57763,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="922" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>921</v>
       </c>
@@ -57777,7 +57777,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="923" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>922</v>
       </c>
@@ -57791,7 +57791,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="924" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>923</v>
       </c>
@@ -57805,7 +57805,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="925" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>924</v>
       </c>
@@ -57819,7 +57819,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="926" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>925</v>
       </c>
@@ -57833,7 +57833,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="927" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>926</v>
       </c>
@@ -57847,7 +57847,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="928" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>927</v>
       </c>
@@ -57861,7 +57861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>928</v>
       </c>
@@ -57875,7 +57875,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="930" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>929</v>
       </c>
@@ -57889,7 +57889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>930</v>
       </c>
@@ -57903,7 +57903,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>931</v>
       </c>
@@ -57917,7 +57917,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>932</v>
       </c>
@@ -57931,7 +57931,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>933</v>
       </c>
@@ -57945,7 +57945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>934</v>
       </c>
@@ -57959,7 +57959,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>935</v>
       </c>
@@ -57973,7 +57973,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>936</v>
       </c>
@@ -57987,7 +57987,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>937</v>
       </c>
@@ -58001,7 +58001,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>938</v>
       </c>
@@ -58015,7 +58015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>939</v>
       </c>
@@ -58029,7 +58029,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>940</v>
       </c>
@@ -58043,7 +58043,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="942" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>941</v>
       </c>
@@ -58057,7 +58057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>942</v>
       </c>
@@ -58071,7 +58071,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="944" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>943</v>
       </c>
@@ -58085,7 +58085,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="945" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>944</v>
       </c>
@@ -58099,7 +58099,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="946" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>945</v>
       </c>
@@ -58113,7 +58113,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="947" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>946</v>
       </c>
@@ -58127,7 +58127,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="948" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>947</v>
       </c>
@@ -58141,7 +58141,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="949" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>948</v>
       </c>
@@ -58155,7 +58155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>949</v>
       </c>
@@ -58169,7 +58169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>950</v>
       </c>
@@ -58183,7 +58183,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="952" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>951</v>
       </c>
@@ -58197,7 +58197,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="953" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>952</v>
       </c>
@@ -58211,7 +58211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>953</v>
       </c>
@@ -58225,7 +58225,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="955" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>954</v>
       </c>
@@ -58239,7 +58239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>955</v>
       </c>
@@ -58253,7 +58253,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="957" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>956</v>
       </c>
@@ -58267,7 +58267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>957</v>
       </c>
@@ -58281,7 +58281,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="959" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>958</v>
       </c>
@@ -58295,7 +58295,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="960" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>959</v>
       </c>
@@ -58309,7 +58309,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="961" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>960</v>
       </c>
@@ -58323,7 +58323,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="962" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>961</v>
       </c>
@@ -58337,7 +58337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>962</v>
       </c>
@@ -58351,7 +58351,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="964" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>963</v>
       </c>
@@ -58365,7 +58365,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="965" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>964</v>
       </c>
@@ -58379,7 +58379,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="966" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>965</v>
       </c>
@@ -58393,7 +58393,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="967" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>966</v>
       </c>
@@ -58407,7 +58407,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="968" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>967</v>
       </c>
@@ -58421,7 +58421,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="969" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>968</v>
       </c>
@@ -58435,7 +58435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>969</v>
       </c>
@@ -58449,7 +58449,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="971" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>970</v>
       </c>
@@ -58463,7 +58463,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="972" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>971</v>
       </c>
@@ -58477,7 +58477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>972</v>
       </c>
@@ -58491,7 +58491,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="974" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>973</v>
       </c>
@@ -58505,7 +58505,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="975" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>974</v>
       </c>
@@ -58519,7 +58519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>975</v>
       </c>
@@ -58533,7 +58533,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="977" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>976</v>
       </c>
@@ -58547,7 +58547,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="978" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>977</v>
       </c>
@@ -58561,7 +58561,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="979" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>978</v>
       </c>
@@ -58575,7 +58575,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="980" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>979</v>
       </c>
@@ -58589,7 +58589,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="981" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>980</v>
       </c>
@@ -58603,7 +58603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>981</v>
       </c>
@@ -58617,7 +58617,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="983" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>982</v>
       </c>
@@ -58631,7 +58631,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="984" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>983</v>
       </c>
@@ -58645,7 +58645,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="985" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>984</v>
       </c>
@@ -58659,7 +58659,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="986" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
         <v>985</v>
       </c>
@@ -58673,7 +58673,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="987" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>986</v>
       </c>
@@ -58687,7 +58687,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="988" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
         <v>987</v>
       </c>
@@ -58701,7 +58701,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="989" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
         <v>988</v>
       </c>
@@ -58715,7 +58715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
         <v>989</v>
       </c>
@@ -58729,7 +58729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
         <v>990</v>
       </c>
@@ -58743,7 +58743,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="992" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
         <v>991</v>
       </c>
@@ -58757,7 +58757,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="993" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
         <v>992</v>
       </c>
@@ -58771,7 +58771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
         <v>993</v>
       </c>
@@ -58785,7 +58785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
         <v>994</v>
       </c>
@@ -58799,7 +58799,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="996" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
         <v>995</v>
       </c>
@@ -58813,7 +58813,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="997" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
         <v>996</v>
       </c>
@@ -58827,7 +58827,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="998" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
         <v>997</v>
       </c>
@@ -58841,7 +58841,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="999" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
         <v>998</v>
       </c>
@@ -58855,7 +58855,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
         <v>999</v>
       </c>
@@ -58869,7 +58869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
         <v>1000</v>
       </c>
@@ -58883,7 +58883,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1002" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
         <v>1001</v>
       </c>
@@ -58897,7 +58897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
         <v>1002</v>
       </c>
@@ -58911,7 +58911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
         <v>1003</v>
       </c>
@@ -58925,7 +58925,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1005" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
         <v>1004</v>
       </c>
@@ -58939,7 +58939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
         <v>1005</v>
       </c>
@@ -58953,7 +58953,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1007" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
         <v>1006</v>
       </c>
@@ -58967,7 +58967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
         <v>1007</v>
       </c>
@@ -58981,7 +58981,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1009" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
         <v>1008</v>
       </c>
@@ -58995,7 +58995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
         <v>1009</v>
       </c>
@@ -59009,7 +59009,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1011" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
         <v>1010</v>
       </c>
@@ -59023,7 +59023,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1012" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
         <v>1011</v>
       </c>
@@ -59037,7 +59037,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1013" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
         <v>1012</v>
       </c>
@@ -59051,7 +59051,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1014" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
         <v>1013</v>
       </c>
@@ -59065,7 +59065,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1015" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
         <v>1014</v>
       </c>
@@ -59079,7 +59079,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1016" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
         <v>1015</v>
       </c>
@@ -59093,7 +59093,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1017" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
         <v>1016</v>
       </c>
@@ -59107,7 +59107,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1018" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
         <v>1017</v>
       </c>
@@ -59121,7 +59121,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1019" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
         <v>1018</v>
       </c>
@@ -59135,7 +59135,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1020" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
         <v>1019</v>
       </c>
@@ -59149,7 +59149,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1021" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
         <v>1020</v>
       </c>
@@ -59163,7 +59163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
         <v>1021</v>
       </c>
@@ -59177,7 +59177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1023" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
         <v>1022</v>
       </c>
@@ -59191,7 +59191,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1024" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
         <v>1023</v>
       </c>
@@ -59205,7 +59205,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1025" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
         <v>1024</v>
       </c>
@@ -59219,7 +59219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1026" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
         <v>1025</v>
       </c>
@@ -59233,7 +59233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1027" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
         <v>1026</v>
       </c>
@@ -59247,7 +59247,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1028" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
         <v>1027</v>
       </c>
@@ -59261,7 +59261,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1029" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
         <v>1028</v>
       </c>
@@ -59275,7 +59275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1030" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
         <v>1029</v>
       </c>
@@ -59289,7 +59289,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1031" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
         <v>1030</v>
       </c>
@@ -59303,7 +59303,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1032" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
         <v>1031</v>
       </c>
@@ -59317,7 +59317,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1033" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
         <v>1032</v>
       </c>
@@ -59331,7 +59331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1034" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
         <v>1033</v>
       </c>
@@ -59345,7 +59345,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1035" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
         <v>1034</v>
       </c>
@@ -59359,7 +59359,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1036" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
         <v>1035</v>
       </c>
@@ -59373,7 +59373,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1037" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
         <v>1036</v>
       </c>
@@ -59387,7 +59387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1038" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
         <v>1037</v>
       </c>
@@ -59401,7 +59401,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1039" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
         <v>1038</v>
       </c>
@@ -59415,7 +59415,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1040" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
         <v>1039</v>
       </c>
@@ -59429,7 +59429,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1041" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
         <v>1040</v>
       </c>
@@ -59443,7 +59443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1042" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
         <v>1041</v>
       </c>
@@ -59457,7 +59457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1043" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
         <v>1042</v>
       </c>
@@ -59471,7 +59471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1044" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
         <v>1043</v>
       </c>
@@ -59485,7 +59485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1045" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
         <v>1044</v>
       </c>
@@ -59499,7 +59499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1046" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
         <v>1045</v>
       </c>
@@ -59513,7 +59513,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1047" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
         <v>1046</v>
       </c>
@@ -59527,7 +59527,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1048" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
         <v>1047</v>
       </c>
@@ -59541,7 +59541,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1049" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
         <v>1048</v>
       </c>
@@ -59555,7 +59555,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1050" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
         <v>1049</v>
       </c>
@@ -59569,7 +59569,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1051" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
         <v>1050</v>
       </c>
@@ -59583,7 +59583,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1052" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
         <v>1051</v>
       </c>
@@ -59597,7 +59597,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1053" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
         <v>1052</v>
       </c>
@@ -59611,7 +59611,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1054" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
         <v>1053</v>
       </c>
@@ -59625,7 +59625,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1055" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
         <v>1054</v>
       </c>
@@ -59639,7 +59639,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1056" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
         <v>1055</v>
       </c>
@@ -59653,7 +59653,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1057" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
         <v>1056</v>
       </c>
@@ -59667,7 +59667,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1058" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
         <v>1057</v>
       </c>
@@ -59681,7 +59681,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1059" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
         <v>1058</v>
       </c>
@@ -59695,7 +59695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1060" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
         <v>1059</v>
       </c>
@@ -59709,7 +59709,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1061" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
         <v>1060</v>
       </c>
@@ -59723,7 +59723,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1062" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
         <v>1061</v>
       </c>
@@ -59737,7 +59737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1063" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
         <v>1062</v>
       </c>
@@ -59751,7 +59751,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1064" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
         <v>1063</v>
       </c>
@@ -59765,7 +59765,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1065" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
         <v>1064</v>
       </c>
@@ -59779,7 +59779,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1066" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
         <v>1065</v>
       </c>
@@ -59793,7 +59793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1067" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
         <v>1066</v>
       </c>
@@ -59807,7 +59807,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1068" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
         <v>1067</v>
       </c>
@@ -59821,7 +59821,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1069" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
         <v>1068</v>
       </c>
@@ -59835,7 +59835,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="1070" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
         <v>1069</v>
       </c>
@@ -59849,7 +59849,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1071" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
         <v>1070</v>
       </c>
@@ -59863,7 +59863,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1072" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
         <v>1071</v>
       </c>
@@ -59877,7 +59877,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1073" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
         <v>1072</v>
       </c>
@@ -59891,7 +59891,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1074" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
         <v>1073</v>
       </c>
@@ -59905,7 +59905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1075" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
         <v>1074</v>
       </c>
@@ -59919,7 +59919,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1076" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
         <v>1075</v>
       </c>
@@ -59933,7 +59933,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1077" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
         <v>1076</v>
       </c>
@@ -59947,7 +59947,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1078" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
         <v>1077</v>
       </c>
@@ -59961,7 +59961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1079" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
         <v>1078</v>
       </c>
@@ -59975,7 +59975,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="1080" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
         <v>1079</v>
       </c>
@@ -59989,7 +59989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1081" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
         <v>1080</v>
       </c>
